--- a/reports/2021/tables.xlsx
+++ b/reports/2021/tables.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miocene/Desktop/git_repos/SWC_A19-1844/reports/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0E4B38-919D-264C-8DB6-2EA5BE649891}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B636874C-F467-E14A-ADED-A116D05F1FFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="3780" windowWidth="29980" windowHeight="17440" xr2:uid="{611CE7B6-6CC0-AD48-8274-72E4B065531F}"/>
+    <workbookView xWindow="3080" yWindow="1020" windowWidth="29980" windowHeight="20200" activeTab="2" xr2:uid="{611CE7B6-6CC0-AD48-8274-72E4B065531F}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 2" sheetId="2" r:id="rId1"/>
     <sheet name="Table 3" sheetId="1" r:id="rId2"/>
+    <sheet name="Table 4" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="72">
   <si>
     <t>Sequencing Technology</t>
   </si>
@@ -197,6 +198,60 @@
   </si>
   <si>
     <t>T4M01_SC_FF</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>N50</t>
+  </si>
+  <si>
+    <t>L50</t>
+  </si>
+  <si>
+    <t>complete</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>fragmented</t>
+  </si>
+  <si>
+    <t>assembly metrics</t>
+  </si>
+  <si>
+    <t>BUSCO</t>
+  </si>
+  <si>
+    <t>ipa</t>
+  </si>
+  <si>
+    <t>scaff10x</t>
+  </si>
+  <si>
+    <t>SALSA2</t>
+  </si>
+  <si>
+    <t>chromonomer</t>
+  </si>
+  <si>
+    <t># contigs</t>
+  </si>
+  <si>
+    <t>assembly length</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Metrics</t>
   </si>
 </sst>
 </file>
@@ -252,7 +307,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -495,11 +550,85 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -531,71 +660,128 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -913,7 +1099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B11EB6-C960-3D4C-9AF4-8A0A99C1BCC5}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:F27"/>
     </sheetView>
   </sheetViews>
@@ -945,61 +1131,61 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="16">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="17" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="27" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="23"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="32" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="35" t="s">
+      <c r="D4" s="30"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="19" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="20" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="24" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="32" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="12" t="s">
@@ -1007,43 +1193,43 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="20"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="23"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="25"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
       <c r="F7" s="14" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="16">
+      <c r="A8" s="20">
         <v>2</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="23" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="31" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="12" t="s">
@@ -1051,43 +1237,43 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="20"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="23"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="32"/>
       <c r="F9" s="12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="26"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="25"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="36"/>
       <c r="F10" s="14" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="16">
+      <c r="A11" s="20">
         <v>3</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="17" t="s">
         <v>34</v>
       </c>
       <c r="F11" s="12" t="s">
@@ -1095,12 +1281,12 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="27" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="15" t="s">
         <v>33</v>
       </c>
       <c r="E12" s="12" t="s">
@@ -1111,12 +1297,12 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="27" t="s">
+      <c r="A13" s="21"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="15" t="s">
         <v>38</v>
       </c>
       <c r="E13" s="12" t="s">
@@ -1127,12 +1313,12 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="27" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="12" t="s">
@@ -1143,12 +1329,12 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="27" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="15" t="s">
         <v>33</v>
       </c>
       <c r="E15" s="12" t="s">
@@ -1159,12 +1345,12 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="27" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="15" t="s">
         <v>33</v>
       </c>
       <c r="E16" s="12" t="s">
@@ -1175,12 +1361,12 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="27" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="15" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="12" t="s">
@@ -1191,30 +1377,30 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="32" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="35" t="s">
+      <c r="F18" s="19" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="36" t="s">
+      <c r="A19" s="21"/>
+      <c r="B19" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="15" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="12" t="s">
@@ -1225,12 +1411,12 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="27" t="s">
+      <c r="A20" s="21"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="15" t="s">
         <v>33</v>
       </c>
       <c r="E20" s="12" t="s">
@@ -1241,12 +1427,12 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="27" t="s">
+      <c r="A21" s="21"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E21" s="12" t="s">
@@ -1257,12 +1443,12 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="27" t="s">
+      <c r="A22" s="21"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="15" t="s">
         <v>33</v>
       </c>
       <c r="E22" s="12" t="s">
@@ -1273,12 +1459,12 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="27" t="s">
+      <c r="A23" s="21"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="15" t="s">
         <v>33</v>
       </c>
       <c r="E23" s="12" t="s">
@@ -1289,12 +1475,12 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="27" t="s">
+      <c r="A24" s="22"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E24" s="12" t="s">
@@ -1305,32 +1491,32 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="16">
+      <c r="A25" s="20">
         <v>4</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="29" t="s">
+      <c r="E25" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F25" s="29" t="s">
+      <c r="F25" s="17" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="27" t="s">
+      <c r="A26" s="21"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="15" t="s">
         <v>38</v>
       </c>
       <c r="E26" s="12" t="s">
@@ -1341,8 +1527,8 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="26"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="13" t="s">
         <v>53</v>
       </c>
@@ -1358,11 +1544,10 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="A11:A24"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="D5:D7"/>
@@ -1370,10 +1555,11 @@
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A11:A24"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="B19:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1510,4 +1696,495 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0F0E95-A08F-2043-B38E-832DC795FA2B}">
+  <dimension ref="A1:E34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:5" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="61"/>
+      <c r="D2" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="59" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="49">
+        <v>353581</v>
+      </c>
+      <c r="E3" s="50">
+        <v>418614</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="39"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="2">
+        <v>324</v>
+      </c>
+      <c r="E4" s="45">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="39"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2086</v>
+      </c>
+      <c r="E5" s="45">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="39"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="51">
+        <v>471831811</v>
+      </c>
+      <c r="E6" s="52">
+        <v>436920153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="39"/>
+      <c r="B7" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="53">
+        <v>0.88</v>
+      </c>
+      <c r="E7" s="54">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="39"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="53">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="E8" s="54">
+        <v>0.874</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="39"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="53">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="E9" s="54">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="40"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="55">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E10" s="56">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="49">
+        <v>1188596</v>
+      </c>
+      <c r="E11" s="50">
+        <v>1392224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="39"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="2">
+        <v>106</v>
+      </c>
+      <c r="E12" s="45">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="39"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1106</v>
+      </c>
+      <c r="E13" s="45">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="39"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="51">
+        <v>471929811</v>
+      </c>
+      <c r="E14" s="52">
+        <v>436999453</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="39"/>
+      <c r="B15" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="53">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="E15" s="54">
+        <v>0.85899999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="39"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="53">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="E16" s="54">
+        <v>0.84399999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="39"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="53">
+        <v>0.08</v>
+      </c>
+      <c r="E17" s="54">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="40"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="55">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E18" s="56">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="49">
+        <v>2749144</v>
+      </c>
+      <c r="E19" s="50">
+        <v>4383157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="39"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="2">
+        <v>38</v>
+      </c>
+      <c r="E20" s="45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="39"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="2">
+        <v>705</v>
+      </c>
+      <c r="E21" s="45">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="39"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="51">
+        <v>472145811</v>
+      </c>
+      <c r="E22" s="52">
+        <v>437264453</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="39"/>
+      <c r="B23" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="53">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="E23" s="54">
+        <v>0.89500000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="39"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="53">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="E24" s="54">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="39"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="53">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="E25" s="54">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="40"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="55">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E26" s="56">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="49">
+        <v>12200365</v>
+      </c>
+      <c r="E27" s="50">
+        <v>14850352</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="39"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="2">
+        <v>15</v>
+      </c>
+      <c r="E28" s="45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="39"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="2">
+        <v>549</v>
+      </c>
+      <c r="E29" s="45">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="39"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="51">
+        <v>472157411</v>
+      </c>
+      <c r="E30" s="52">
+        <v>437273953</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="39"/>
+      <c r="B31" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="53">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="E31" s="54">
+        <v>0.89300000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="39"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="53">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="E32" s="54">
+        <v>0.877</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="39"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="53">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="E33" s="54">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="40"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="55">
+        <v>0.01</v>
+      </c>
+      <c r="E34" s="56">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>